--- a/ClientServerCommunication.xlsx
+++ b/ClientServerCommunication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaszhao/Dropbox/University/FALL2020/ENSF607/Client-Server-Tool-Shop-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DC2AE6-C747-8E4A-940E-DA3087193153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE87FDD0-1C50-6D45-AE1F-EEE66A1982AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{68DE5280-EFDB-DA41-9EDC-BECB3D25F3F7}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Client Side</t>
   </si>
   <si>
-    <t>send msg 1</t>
-  </si>
-  <si>
     <t>send msg 2</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>CDI &lt;id&gt;</t>
+  </si>
+  <si>
+    <t>code msg1</t>
   </si>
 </sst>
 </file>
@@ -576,16 +576,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8F2A82-FF87-B142-A825-370200A6FA02}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="38.83203125" customWidth="1"/>
-    <col min="5" max="6" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="25.5" customWidth="1"/>
@@ -597,8 +598,8 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
+      <c r="F1" t="s">
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -608,32 +609,32 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -644,28 +645,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -673,57 +674,57 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -731,28 +732,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -760,28 +761,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -792,28 +793,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -821,28 +822,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -850,28 +851,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -879,28 +880,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -908,28 +909,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
